--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1950.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1950.xlsx
@@ -354,7 +354,7 @@
         <v>1.665825539721567</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.126835810698056</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1950.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1950.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9498286112454076</v>
+        <v>0.2280973941087723</v>
       </c>
       <c r="B1">
-        <v>1.665825539721567</v>
+        <v>0.2552430927753448</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.3115582168102264</v>
       </c>
       <c r="D1">
-        <v>2.126835810698056</v>
+        <v>0.5969285368919373</v>
       </c>
       <c r="E1">
-        <v>1.355527842459941</v>
+        <v>4.431256294250488</v>
       </c>
     </row>
   </sheetData>
